--- a/data/pca/factorExposure/factorExposure_2009-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01744611943897852</v>
+        <v>0.0168482716577962</v>
       </c>
       <c r="C2">
-        <v>0.00167634689722592</v>
+        <v>0.001224791983087741</v>
       </c>
       <c r="D2">
-        <v>-0.008768653108157944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009064580037642524</v>
+      </c>
+      <c r="E2">
+        <v>0.001858033017170695</v>
+      </c>
+      <c r="F2">
+        <v>0.01191254226321995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08999450202502542</v>
+        <v>0.09178551627110745</v>
       </c>
       <c r="C4">
-        <v>0.01991865571695163</v>
+        <v>0.01508299421016282</v>
       </c>
       <c r="D4">
-        <v>-0.07697338892844718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08202237146485325</v>
+      </c>
+      <c r="E4">
+        <v>0.02660524767939802</v>
+      </c>
+      <c r="F4">
+        <v>-0.03178411328337977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.44347918768603e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.05041640192955e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-7.627365670148934e-05</v>
+      </c>
+      <c r="E5">
+        <v>-5.309862059993167e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001070667058329503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1529183264375526</v>
+        <v>0.1614324830026465</v>
       </c>
       <c r="C6">
-        <v>0.03028320002343414</v>
+        <v>0.02945654982228887</v>
       </c>
       <c r="D6">
-        <v>0.03653445436941197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02633294616675164</v>
+      </c>
+      <c r="E6">
+        <v>0.00977358481484941</v>
+      </c>
+      <c r="F6">
+        <v>-0.04037527512258565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06022367676829984</v>
+        <v>0.06231441757151805</v>
       </c>
       <c r="C7">
-        <v>0.001961124613469728</v>
+        <v>-0.001354190999731855</v>
       </c>
       <c r="D7">
-        <v>-0.0486137584700759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05370593124372976</v>
+      </c>
+      <c r="E7">
+        <v>0.01478855982994111</v>
+      </c>
+      <c r="F7">
+        <v>-0.04930048791461581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06130404652725063</v>
+        <v>0.05701391493644459</v>
       </c>
       <c r="C8">
-        <v>-0.01009284859937271</v>
+        <v>-0.01192777475798922</v>
       </c>
       <c r="D8">
-        <v>-0.0249217758792886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02977987579790022</v>
+      </c>
+      <c r="E8">
+        <v>0.01749047555740135</v>
+      </c>
+      <c r="F8">
+        <v>0.02761215993738896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0697255218975128</v>
+        <v>0.0713399968882983</v>
       </c>
       <c r="C9">
-        <v>0.01584058917617958</v>
+        <v>0.01066585584738771</v>
       </c>
       <c r="D9">
-        <v>-0.07945694471873563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08533249745078815</v>
+      </c>
+      <c r="E9">
+        <v>0.02452519157696154</v>
+      </c>
+      <c r="F9">
+        <v>-0.04862612983751564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08470830162087976</v>
+        <v>0.0869407363341626</v>
       </c>
       <c r="C10">
-        <v>0.01595054345346334</v>
+        <v>0.02177979177761914</v>
       </c>
       <c r="D10">
-        <v>0.1674973231769878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594444741682607</v>
+      </c>
+      <c r="E10">
+        <v>-0.0342132130311005</v>
+      </c>
+      <c r="F10">
+        <v>0.05856584309892445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09114643478683276</v>
+        <v>0.08775672545964225</v>
       </c>
       <c r="C11">
-        <v>0.01715740385547164</v>
+        <v>0.01184809819264483</v>
       </c>
       <c r="D11">
-        <v>-0.1105446900067288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1173432165047894</v>
+      </c>
+      <c r="E11">
+        <v>0.04863379904833784</v>
+      </c>
+      <c r="F11">
+        <v>-0.02513970500107152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09673575714402345</v>
+        <v>0.09069315584896637</v>
       </c>
       <c r="C12">
-        <v>0.01544727492531445</v>
+        <v>0.009320921956807164</v>
       </c>
       <c r="D12">
-        <v>-0.11762053529667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320874976358733</v>
+      </c>
+      <c r="E12">
+        <v>0.04911742321924418</v>
+      </c>
+      <c r="F12">
+        <v>-0.03181362284726413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04472952416452029</v>
+        <v>0.04354611435521925</v>
       </c>
       <c r="C13">
-        <v>0.006530298503260262</v>
+        <v>0.002719524735166987</v>
       </c>
       <c r="D13">
-        <v>-0.04341514072510801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05373164350684778</v>
+      </c>
+      <c r="E13">
+        <v>-0.0001889123424661223</v>
+      </c>
+      <c r="F13">
+        <v>-0.004769349873195808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01957487176580628</v>
+        <v>0.02347229273811143</v>
       </c>
       <c r="C14">
-        <v>0.01515401294830554</v>
+        <v>0.01386056380888423</v>
       </c>
       <c r="D14">
-        <v>-0.03189377254635373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03238636810169027</v>
+      </c>
+      <c r="E14">
+        <v>0.01881646916304194</v>
+      </c>
+      <c r="F14">
+        <v>-0.01182430665665224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03465542437040204</v>
+        <v>0.03424126161038522</v>
       </c>
       <c r="C15">
-        <v>0.007568022562727367</v>
+        <v>0.005620037536199509</v>
       </c>
       <c r="D15">
-        <v>-0.04537388702380279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04680244624407499</v>
+      </c>
+      <c r="E15">
+        <v>0.00856997917380925</v>
+      </c>
+      <c r="F15">
+        <v>-0.02955529462820554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07510849189022516</v>
+        <v>0.0726119471949091</v>
       </c>
       <c r="C16">
-        <v>0.007621598262688717</v>
+        <v>0.00196551955976248</v>
       </c>
       <c r="D16">
-        <v>-0.1150854716558461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1281440539514396</v>
+      </c>
+      <c r="E16">
+        <v>0.06300251311856207</v>
+      </c>
+      <c r="F16">
+        <v>-0.02794736103049057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001110017878079808</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003271438911558221</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001957339478870145</v>
+      </c>
+      <c r="E17">
+        <v>0.001465383183902883</v>
+      </c>
+      <c r="F17">
+        <v>0.002305548429634159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02411476146663006</v>
+        <v>0.04145394976868576</v>
       </c>
       <c r="C18">
-        <v>-0.002044011209302346</v>
+        <v>-0.00212762779423266</v>
       </c>
       <c r="D18">
-        <v>-0.02263231820708281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01568756783717051</v>
+      </c>
+      <c r="E18">
+        <v>-0.005607065737385051</v>
+      </c>
+      <c r="F18">
+        <v>0.009147298883544959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06369353320823418</v>
+        <v>0.06201086805289261</v>
       </c>
       <c r="C20">
-        <v>0.005125416496414391</v>
+        <v>0.001173630977943777</v>
       </c>
       <c r="D20">
-        <v>-0.07209670019543656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07891505430425327</v>
+      </c>
+      <c r="E20">
+        <v>0.05884015636552949</v>
+      </c>
+      <c r="F20">
+        <v>-0.02942338167664181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04094673132184171</v>
+        <v>0.04207386626138823</v>
       </c>
       <c r="C21">
-        <v>0.009805441126849439</v>
+        <v>0.006922645440183927</v>
       </c>
       <c r="D21">
-        <v>-0.03233095942623408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03582656821171123</v>
+      </c>
+      <c r="E21">
+        <v>-0.0005005219596702423</v>
+      </c>
+      <c r="F21">
+        <v>0.02414759933703866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04110894709262422</v>
+        <v>0.04321273675867999</v>
       </c>
       <c r="C22">
-        <v>0.001473175869889596</v>
+        <v>0.00116715002227362</v>
       </c>
       <c r="D22">
-        <v>-0.0007147361589558261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007104970230367104</v>
+      </c>
+      <c r="E22">
+        <v>0.03795288465969009</v>
+      </c>
+      <c r="F22">
+        <v>0.04844565853544861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04107122225464934</v>
+        <v>0.04318817257136464</v>
       </c>
       <c r="C23">
-        <v>0.001462135550171628</v>
+        <v>0.001157841283215904</v>
       </c>
       <c r="D23">
-        <v>-0.0007392054737403364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007118706383389176</v>
+      </c>
+      <c r="E23">
+        <v>0.03813751088392266</v>
+      </c>
+      <c r="F23">
+        <v>0.04841893858908092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08249415230207602</v>
+        <v>0.07841178580115077</v>
       </c>
       <c r="C24">
-        <v>0.008254702587220445</v>
+        <v>0.002792939904810415</v>
       </c>
       <c r="D24">
-        <v>-0.1147283025262991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203199413754139</v>
+      </c>
+      <c r="E24">
+        <v>0.05060543763178351</v>
+      </c>
+      <c r="F24">
+        <v>-0.03070636820139682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08723612158631379</v>
+        <v>0.08355975500047981</v>
       </c>
       <c r="C25">
-        <v>0.01054675504715628</v>
+        <v>0.005548859035200387</v>
       </c>
       <c r="D25">
-        <v>-0.102438670088976</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095404723606047</v>
+      </c>
+      <c r="E25">
+        <v>0.03370475188604268</v>
+      </c>
+      <c r="F25">
+        <v>-0.02808083028306735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05791288105063627</v>
+        <v>0.06023991388787477</v>
       </c>
       <c r="C26">
-        <v>0.01815154681207031</v>
+        <v>0.01481530997522485</v>
       </c>
       <c r="D26">
-        <v>-0.0336273143870976</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04409120543455389</v>
+      </c>
+      <c r="E26">
+        <v>0.03063600721630877</v>
+      </c>
+      <c r="F26">
+        <v>0.007381891439261654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1328436665298287</v>
+        <v>0.1425393928514579</v>
       </c>
       <c r="C28">
-        <v>0.01510042473845973</v>
+        <v>0.02377369270162218</v>
       </c>
       <c r="D28">
-        <v>0.265856140928056</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2598581891015109</v>
+      </c>
+      <c r="E28">
+        <v>-0.06879470655749598</v>
+      </c>
+      <c r="F28">
+        <v>-0.004775147769593919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0258882443095996</v>
+        <v>0.02849998308387814</v>
       </c>
       <c r="C29">
-        <v>0.009831383355853943</v>
+        <v>0.009047438668446213</v>
       </c>
       <c r="D29">
-        <v>-0.02996496627667608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03005173182795827</v>
+      </c>
+      <c r="E29">
+        <v>0.01412131516936594</v>
+      </c>
+      <c r="F29">
+        <v>0.01368157372924924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05989952351794762</v>
+        <v>0.05663773439570382</v>
       </c>
       <c r="C30">
-        <v>0.007946869252599265</v>
+        <v>0.002643259591036979</v>
       </c>
       <c r="D30">
-        <v>-0.08008064072782897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08815541788614631</v>
+      </c>
+      <c r="E30">
+        <v>0.01594903018854907</v>
+      </c>
+      <c r="F30">
+        <v>-0.07891036632677569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05057374914582517</v>
+        <v>0.05101406866891232</v>
       </c>
       <c r="C31">
-        <v>0.01753109371306383</v>
+        <v>0.01628580855189242</v>
       </c>
       <c r="D31">
-        <v>-0.02110224838534815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02388367935938154</v>
+      </c>
+      <c r="E31">
+        <v>0.02842786599660821</v>
+      </c>
+      <c r="F31">
+        <v>0.001009765028752443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04801776678029075</v>
+        <v>0.05191319932214039</v>
       </c>
       <c r="C32">
-        <v>0.002215320078496576</v>
+        <v>-0.001203110308987461</v>
       </c>
       <c r="D32">
-        <v>-0.02984342284240573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03408757559785279</v>
+      </c>
+      <c r="E32">
+        <v>0.03367573533253922</v>
+      </c>
+      <c r="F32">
+        <v>-0.002715667309109423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09050162600406687</v>
+        <v>0.0896739458204633</v>
       </c>
       <c r="C33">
-        <v>0.01350496314395292</v>
+        <v>0.007619181527184556</v>
       </c>
       <c r="D33">
-        <v>-0.08934887696717324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034485273620629</v>
+      </c>
+      <c r="E33">
+        <v>0.04721888311600363</v>
+      </c>
+      <c r="F33">
+        <v>-0.04375370385513824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06916488228855676</v>
+        <v>0.06723233353146406</v>
       </c>
       <c r="C34">
-        <v>0.01565991531634401</v>
+        <v>0.01088871430493366</v>
       </c>
       <c r="D34">
-        <v>-0.09640720239798721</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1084559838527124</v>
+      </c>
+      <c r="E34">
+        <v>0.03663998958139161</v>
+      </c>
+      <c r="F34">
+        <v>-0.03533503103706594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02553936832098304</v>
+        <v>0.02677689962901582</v>
       </c>
       <c r="C35">
-        <v>0.003903399424825717</v>
+        <v>0.003419791768072965</v>
       </c>
       <c r="D35">
-        <v>-0.008166714730193935</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01190250978628984</v>
+      </c>
+      <c r="E35">
+        <v>0.01375927271512201</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002770941946965982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02524647528842901</v>
+        <v>0.02880173108058526</v>
       </c>
       <c r="C36">
-        <v>0.008229933918956158</v>
+        <v>0.007148708392644301</v>
       </c>
       <c r="D36">
-        <v>-0.03875074949138725</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03959399260700171</v>
+      </c>
+      <c r="E36">
+        <v>0.01765773399563249</v>
+      </c>
+      <c r="F36">
+        <v>-0.01494093959776712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001749117413937484</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007047412936025237</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002944257643308946</v>
+      </c>
+      <c r="E37">
+        <v>0.0001848302792491028</v>
+      </c>
+      <c r="F37">
+        <v>0.001638019008087233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1110029126830221</v>
+        <v>0.09981108184037153</v>
       </c>
       <c r="C39">
-        <v>0.02309442949751597</v>
+        <v>0.01657084569479146</v>
       </c>
       <c r="D39">
-        <v>-0.147132769564267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1507713516145458</v>
+      </c>
+      <c r="E39">
+        <v>0.06069540516595991</v>
+      </c>
+      <c r="F39">
+        <v>-0.02163335350417211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03884411087166444</v>
+        <v>0.04400583806642453</v>
       </c>
       <c r="C40">
-        <v>0.009425292182487997</v>
+        <v>0.007953267784294255</v>
       </c>
       <c r="D40">
-        <v>-0.02370139829008567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03263915356751095</v>
+      </c>
+      <c r="E40">
+        <v>0.003197233278614149</v>
+      </c>
+      <c r="F40">
+        <v>0.01520551451923121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02463416856997783</v>
+        <v>0.02652102876555492</v>
       </c>
       <c r="C41">
-        <v>0.007374643576463301</v>
+        <v>0.006853998606737302</v>
       </c>
       <c r="D41">
-        <v>-0.007841951077296959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009981072310565766</v>
+      </c>
+      <c r="E41">
+        <v>0.01136403467164595</v>
+      </c>
+      <c r="F41">
+        <v>0.007682968189002302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04184059963757501</v>
+        <v>0.03994986916593653</v>
       </c>
       <c r="C43">
-        <v>0.008582404115483369</v>
+        <v>0.007881712831857584</v>
       </c>
       <c r="D43">
-        <v>-0.01628168050068536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01884143505460077</v>
+      </c>
+      <c r="E43">
+        <v>0.02579345230109865</v>
+      </c>
+      <c r="F43">
+        <v>0.01628027757040873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06837824879825447</v>
+        <v>0.07762475117037906</v>
       </c>
       <c r="C44">
-        <v>0.0242084566235334</v>
+        <v>0.02000460351184058</v>
       </c>
       <c r="D44">
-        <v>-0.09518892789548769</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09618905511455991</v>
+      </c>
+      <c r="E44">
+        <v>0.06251002081006636</v>
+      </c>
+      <c r="F44">
+        <v>-0.1679789700338814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02118068487114158</v>
+        <v>0.02407097125975292</v>
       </c>
       <c r="C46">
-        <v>0.004378940962452962</v>
+        <v>0.00364088232968543</v>
       </c>
       <c r="D46">
-        <v>-0.008922577396961175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01204048235334498</v>
+      </c>
+      <c r="E46">
+        <v>0.02708503496081522</v>
+      </c>
+      <c r="F46">
+        <v>0.005700523746526865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05376500681691579</v>
+        <v>0.05293151526562311</v>
       </c>
       <c r="C47">
-        <v>0.00564381392443739</v>
+        <v>0.004764991153294131</v>
       </c>
       <c r="D47">
-        <v>-0.007081025544919294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01097357964895589</v>
+      </c>
+      <c r="E47">
+        <v>0.02375236531146004</v>
+      </c>
+      <c r="F47">
+        <v>0.03165385904449879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04849531110887414</v>
+        <v>0.0509910766326973</v>
       </c>
       <c r="C48">
-        <v>0.005166456253421111</v>
+        <v>0.002551230169079462</v>
       </c>
       <c r="D48">
-        <v>-0.04677245037320657</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04978435917084671</v>
+      </c>
+      <c r="E48">
+        <v>-0.003569573490973835</v>
+      </c>
+      <c r="F48">
+        <v>-0.01287156335771085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1985234338225767</v>
+        <v>0.2000477180335178</v>
       </c>
       <c r="C49">
-        <v>0.0232220080022672</v>
+        <v>0.02150833687454536</v>
       </c>
       <c r="D49">
-        <v>0.0147614874081198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005318570238639405</v>
+      </c>
+      <c r="E49">
+        <v>0.03257889001237538</v>
+      </c>
+      <c r="F49">
+        <v>-0.04858874960431339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04907710783969454</v>
+        <v>0.05107693482142115</v>
       </c>
       <c r="C50">
-        <v>0.01319862695611834</v>
+        <v>0.01191175064085191</v>
       </c>
       <c r="D50">
-        <v>-0.02083538876277128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02322680424751261</v>
+      </c>
+      <c r="E50">
+        <v>0.03019523506024964</v>
+      </c>
+      <c r="F50">
+        <v>-0.009015330882254997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1552742445925992</v>
+        <v>0.1482765092839688</v>
       </c>
       <c r="C52">
-        <v>0.02148525684863771</v>
+        <v>0.01947700256894232</v>
       </c>
       <c r="D52">
-        <v>-0.04156682910618292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04271284570397459</v>
+      </c>
+      <c r="E52">
+        <v>0.02228120186935806</v>
+      </c>
+      <c r="F52">
+        <v>-0.04204958546378031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1746228844661063</v>
+        <v>0.1687684836253573</v>
       </c>
       <c r="C53">
-        <v>0.02254134451151372</v>
+        <v>0.02256282720285975</v>
       </c>
       <c r="D53">
-        <v>-0.006121185388428268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006081483463456513</v>
+      </c>
+      <c r="E53">
+        <v>0.02976699845066882</v>
+      </c>
+      <c r="F53">
+        <v>-0.07507391657497699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01765641918672479</v>
+        <v>0.01953860884593779</v>
       </c>
       <c r="C54">
-        <v>0.01227525423486618</v>
+        <v>0.01111148727761176</v>
       </c>
       <c r="D54">
-        <v>-0.02976005670632586</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03043698029764028</v>
+      </c>
+      <c r="E54">
+        <v>0.02068249280580354</v>
+      </c>
+      <c r="F54">
+        <v>0.002715370801162771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1184333566125803</v>
+        <v>0.1167235196269829</v>
       </c>
       <c r="C55">
-        <v>0.01983890113949927</v>
+        <v>0.01979317414177097</v>
       </c>
       <c r="D55">
-        <v>-0.004709842352852656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008287683492884714</v>
+      </c>
+      <c r="E55">
+        <v>0.02711572406119499</v>
+      </c>
+      <c r="F55">
+        <v>-0.04656661569534233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809060856796132</v>
+        <v>0.1758191530546091</v>
       </c>
       <c r="C56">
-        <v>0.02056097140278965</v>
+        <v>0.02081472865403238</v>
       </c>
       <c r="D56">
-        <v>0.007376789334671268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002872436496851757</v>
+      </c>
+      <c r="E56">
+        <v>0.03282554150885821</v>
+      </c>
+      <c r="F56">
+        <v>-0.05533800386702452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04731482465205082</v>
+        <v>0.04594547227107629</v>
       </c>
       <c r="C58">
-        <v>0.005178495978662682</v>
+        <v>0.0002862343730335674</v>
       </c>
       <c r="D58">
-        <v>-0.06656462885895818</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07596248979833013</v>
+      </c>
+      <c r="E58">
+        <v>0.036407675237869</v>
+      </c>
+      <c r="F58">
+        <v>0.03795423277307195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1590956698734411</v>
+        <v>0.1659800456455977</v>
       </c>
       <c r="C59">
-        <v>0.01675964532005649</v>
+        <v>0.0239174987570729</v>
       </c>
       <c r="D59">
-        <v>0.2259579806982286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176470884418071</v>
+      </c>
+      <c r="E59">
+        <v>-0.05034619359082781</v>
+      </c>
+      <c r="F59">
+        <v>0.0399733366020155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2383343418884343</v>
+        <v>0.2302182284138952</v>
       </c>
       <c r="C60">
-        <v>0.004651449719678261</v>
+        <v>0.00158447495186998</v>
       </c>
       <c r="D60">
-        <v>-0.03485295136642889</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03812687214367382</v>
+      </c>
+      <c r="E60">
+        <v>0.004323099870569008</v>
+      </c>
+      <c r="F60">
+        <v>-0.006388993900762059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08133065374870115</v>
+        <v>0.07452982768481491</v>
       </c>
       <c r="C61">
-        <v>0.01676722418465387</v>
+        <v>0.0112989060351806</v>
       </c>
       <c r="D61">
-        <v>-0.1097682384634851</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1159644808948343</v>
+      </c>
+      <c r="E61">
+        <v>0.0384523944224824</v>
+      </c>
+      <c r="F61">
+        <v>-0.007776716329076833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1730649076080617</v>
+        <v>0.1690796286296308</v>
       </c>
       <c r="C62">
-        <v>0.02437703861000763</v>
+        <v>0.02357718308058257</v>
       </c>
       <c r="D62">
-        <v>0.000502608877971624</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005976919766760651</v>
+      </c>
+      <c r="E62">
+        <v>0.03467748369992871</v>
+      </c>
+      <c r="F62">
+        <v>-0.04122578773115346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04173602313183009</v>
+        <v>0.04578720771444462</v>
       </c>
       <c r="C63">
-        <v>0.00547255039488125</v>
+        <v>0.00211868816828722</v>
       </c>
       <c r="D63">
-        <v>-0.04897801225790773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05981838479537148</v>
+      </c>
+      <c r="E63">
+        <v>0.02406380090053499</v>
+      </c>
+      <c r="F63">
+        <v>-0.0008618330038211866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1142548109524828</v>
+        <v>0.1111459427682096</v>
       </c>
       <c r="C64">
-        <v>0.01656984142043049</v>
+        <v>0.01334824458117898</v>
       </c>
       <c r="D64">
-        <v>-0.03341989421991368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04211344893759136</v>
+      </c>
+      <c r="E64">
+        <v>0.02449893147279054</v>
+      </c>
+      <c r="F64">
+        <v>-0.02680567503998263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1448353216365103</v>
+        <v>0.1518680612135406</v>
       </c>
       <c r="C65">
-        <v>0.03647397524676737</v>
+        <v>0.03629157993723457</v>
       </c>
       <c r="D65">
-        <v>0.05906327785913093</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0458734584796864</v>
+      </c>
+      <c r="E65">
+        <v>0.005786410228142883</v>
+      </c>
+      <c r="F65">
+        <v>-0.0380614904692455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1336175569715043</v>
+        <v>0.1198355744509642</v>
       </c>
       <c r="C66">
-        <v>0.02156197743277981</v>
+        <v>0.01483552675343883</v>
       </c>
       <c r="D66">
-        <v>-0.1297372118329637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1399737951679976</v>
+      </c>
+      <c r="E66">
+        <v>0.06507636491409789</v>
+      </c>
+      <c r="F66">
+        <v>-0.02735407286751369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06386377692514411</v>
+        <v>0.05645493109821437</v>
       </c>
       <c r="C67">
-        <v>0.006425539553245012</v>
+        <v>0.00405545513769168</v>
       </c>
       <c r="D67">
-        <v>-0.05432242713604436</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05800325555689848</v>
+      </c>
+      <c r="E67">
+        <v>0.02053451450801145</v>
+      </c>
+      <c r="F67">
+        <v>0.03436251532029267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1062288142430823</v>
+        <v>0.1170325137345988</v>
       </c>
       <c r="C68">
-        <v>0.0251650069290696</v>
+        <v>0.03455487889456754</v>
       </c>
       <c r="D68">
-        <v>0.2640025118345219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2608650519083024</v>
+      </c>
+      <c r="E68">
+        <v>-0.09019794247986673</v>
+      </c>
+      <c r="F68">
+        <v>-0.001201728132969628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03848389841566941</v>
+        <v>0.03759130925997409</v>
       </c>
       <c r="C69">
-        <v>0.002161469374705107</v>
+        <v>0.001322415925986968</v>
       </c>
       <c r="D69">
-        <v>-0.007026679260887089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008513650668975447</v>
+      </c>
+      <c r="E69">
+        <v>0.02452958625624418</v>
+      </c>
+      <c r="F69">
+        <v>0.0005941085282667639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06748696537061803</v>
+        <v>0.06714419154977835</v>
       </c>
       <c r="C70">
-        <v>-0.02423307504690938</v>
+        <v>-0.02640468174376015</v>
       </c>
       <c r="D70">
-        <v>-0.02089355376420769</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02678520452408572</v>
+      </c>
+      <c r="E70">
+        <v>-0.02568728173984861</v>
+      </c>
+      <c r="F70">
+        <v>0.1812716002658602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1250283102876331</v>
+        <v>0.1370576581266656</v>
       </c>
       <c r="C71">
-        <v>0.02985608189124259</v>
+        <v>0.03915792882967754</v>
       </c>
       <c r="D71">
-        <v>0.2806801910367266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.270647179129623</v>
+      </c>
+      <c r="E71">
+        <v>-0.09894010569023884</v>
+      </c>
+      <c r="F71">
+        <v>-0.006806332326266681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1367115941566442</v>
+        <v>0.1438705044697579</v>
       </c>
       <c r="C72">
-        <v>0.02887811575039857</v>
+        <v>0.02934168619094957</v>
       </c>
       <c r="D72">
-        <v>-0.0007929666081580535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00357891370762494</v>
+      </c>
+      <c r="E72">
+        <v>0.03949926792886552</v>
+      </c>
+      <c r="F72">
+        <v>-0.02745223483301611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2033140309952934</v>
+        <v>0.2035204673664307</v>
       </c>
       <c r="C73">
-        <v>0.01816600579632967</v>
+        <v>0.01463987047469044</v>
       </c>
       <c r="D73">
-        <v>-0.006643174454393131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01746064704725721</v>
+      </c>
+      <c r="E73">
+        <v>0.06724090952038085</v>
+      </c>
+      <c r="F73">
+        <v>-0.04358350806835871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0917015262623764</v>
+        <v>0.09280672815933505</v>
       </c>
       <c r="C74">
-        <v>0.01488200648524598</v>
+        <v>0.01426178423749705</v>
       </c>
       <c r="D74">
-        <v>-0.01488460056529429</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01694492102747505</v>
+      </c>
+      <c r="E74">
+        <v>0.04355169699288071</v>
+      </c>
+      <c r="F74">
+        <v>-0.0522562880907779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.133647659704035</v>
+        <v>0.125963247832915</v>
       </c>
       <c r="C75">
-        <v>0.032112405652889</v>
+        <v>0.0303710684093744</v>
       </c>
       <c r="D75">
-        <v>-0.02304005857361755</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02929643381651006</v>
+      </c>
+      <c r="E75">
+        <v>0.05750381351406732</v>
+      </c>
+      <c r="F75">
+        <v>-0.02136159112695657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08179283302605375</v>
+        <v>0.09211785363883093</v>
       </c>
       <c r="C77">
-        <v>0.01427295389660891</v>
+        <v>0.008889608061835438</v>
       </c>
       <c r="D77">
-        <v>-0.1127339891086676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.11635165766419</v>
+      </c>
+      <c r="E77">
+        <v>0.0492941517125258</v>
+      </c>
+      <c r="F77">
+        <v>-0.03612864570981808</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1023659480356801</v>
+        <v>0.102052466057483</v>
       </c>
       <c r="C78">
-        <v>0.04484180042599134</v>
+        <v>0.04037301701265689</v>
       </c>
       <c r="D78">
-        <v>-0.1115456217393001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1114328686744104</v>
+      </c>
+      <c r="E78">
+        <v>0.0787753852562785</v>
+      </c>
+      <c r="F78">
+        <v>-0.05229327573218085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1666687908517305</v>
+        <v>0.1634046870392978</v>
       </c>
       <c r="C79">
-        <v>0.0270564395141149</v>
+        <v>0.02589692116360399</v>
       </c>
       <c r="D79">
-        <v>-0.005470601250327825</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01162039029177433</v>
+      </c>
+      <c r="E79">
+        <v>0.04394943469672651</v>
+      </c>
+      <c r="F79">
+        <v>-0.01292838277595226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08130597340043237</v>
+        <v>0.07966478300283202</v>
       </c>
       <c r="C80">
-        <v>0.002718537207752154</v>
+        <v>-1.933816299389655e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05214715240187718</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05342474042620693</v>
+      </c>
+      <c r="E80">
+        <v>0.03568886458595986</v>
+      </c>
+      <c r="F80">
+        <v>0.02706210917751796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1210325086470816</v>
+        <v>0.1161133643366325</v>
       </c>
       <c r="C81">
-        <v>0.0341922518508075</v>
+        <v>0.03378822738721882</v>
       </c>
       <c r="D81">
-        <v>-0.007599092504891121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01203773716832503</v>
+      </c>
+      <c r="E81">
+        <v>0.05254265561303989</v>
+      </c>
+      <c r="F81">
+        <v>-0.01744157306132124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1662216200272128</v>
+        <v>0.1648705240163511</v>
       </c>
       <c r="C82">
-        <v>0.0276369743226132</v>
+        <v>0.02819048830409938</v>
       </c>
       <c r="D82">
-        <v>-0.004750449435762987</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002867180176509578</v>
+      </c>
+      <c r="E82">
+        <v>0.02844375764443917</v>
+      </c>
+      <c r="F82">
+        <v>-0.0827087347437143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06345012767411608</v>
+        <v>0.05730841745955269</v>
       </c>
       <c r="C83">
-        <v>0.006130240568761239</v>
+        <v>0.003796086889771378</v>
       </c>
       <c r="D83">
-        <v>-0.04331795076868563</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04647593354687922</v>
+      </c>
+      <c r="E83">
+        <v>0.003350553343547006</v>
+      </c>
+      <c r="F83">
+        <v>0.03689956188055623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06124736315353333</v>
+        <v>0.05553565546432155</v>
       </c>
       <c r="C84">
-        <v>0.01384513273691913</v>
+        <v>0.01112859237310493</v>
       </c>
       <c r="D84">
-        <v>-0.06867157560739388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07215802858894781</v>
+      </c>
+      <c r="E84">
+        <v>0.01386435731161557</v>
+      </c>
+      <c r="F84">
+        <v>-0.01478291844644479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397054480785357</v>
+        <v>0.1350646630561204</v>
       </c>
       <c r="C85">
-        <v>0.03103803746142027</v>
+        <v>0.03063610627869105</v>
       </c>
       <c r="D85">
-        <v>-0.006396340036536889</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009162706571406</v>
+      </c>
+      <c r="E85">
+        <v>0.03620606804719861</v>
+      </c>
+      <c r="F85">
+        <v>-0.04844695437228673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1003866069640352</v>
+        <v>0.09328084461317689</v>
       </c>
       <c r="C86">
-        <v>-0.001841668263481447</v>
+        <v>-0.005107298610226978</v>
       </c>
       <c r="D86">
-        <v>-0.01550972522883103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05121980354429501</v>
+      </c>
+      <c r="E86">
+        <v>0.2211835483521323</v>
+      </c>
+      <c r="F86">
+        <v>0.8981887110395369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09626854936568435</v>
+        <v>0.09245621050118422</v>
       </c>
       <c r="C87">
-        <v>0.02848884022690301</v>
+        <v>0.02026500011510921</v>
       </c>
       <c r="D87">
-        <v>-0.07300582844189009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09479570000391095</v>
+      </c>
+      <c r="E87">
+        <v>-0.05231446364567694</v>
+      </c>
+      <c r="F87">
+        <v>-0.05001632256928418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0625244840570636</v>
+        <v>0.06073264671504342</v>
       </c>
       <c r="C88">
-        <v>0.005758626846550048</v>
+        <v>0.002936498930407891</v>
       </c>
       <c r="D88">
-        <v>-0.04874764814578982</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04926029750617898</v>
+      </c>
+      <c r="E88">
+        <v>0.02499455854627012</v>
+      </c>
+      <c r="F88">
+        <v>-0.01380034097063249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1170257042180605</v>
+        <v>0.1267501427473372</v>
       </c>
       <c r="C89">
-        <v>0.006093415911136072</v>
+        <v>0.01457025865323596</v>
       </c>
       <c r="D89">
-        <v>0.2414472451438419</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2421934560298912</v>
+      </c>
+      <c r="E89">
+        <v>-0.09131627425613158</v>
+      </c>
+      <c r="F89">
+        <v>0.00749269522663713</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1374379328645117</v>
+        <v>0.1524630564194644</v>
       </c>
       <c r="C90">
-        <v>0.02626807469460992</v>
+        <v>0.03603042176655893</v>
       </c>
       <c r="D90">
-        <v>0.2670139040874469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2677359696301493</v>
+      </c>
+      <c r="E90">
+        <v>-0.1150438369795548</v>
+      </c>
+      <c r="F90">
+        <v>0.008098372409267885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1215313219427925</v>
+        <v>0.1198074468499158</v>
       </c>
       <c r="C91">
-        <v>0.02168590347054236</v>
+        <v>0.0219714285227856</v>
       </c>
       <c r="D91">
-        <v>0.02043822664042471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01716817564510122</v>
+      </c>
+      <c r="E91">
+        <v>0.05356877532243137</v>
+      </c>
+      <c r="F91">
+        <v>0.00194449782167754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1378846806458472</v>
+        <v>0.1450233060881682</v>
       </c>
       <c r="C92">
-        <v>0.01684971648566751</v>
+        <v>0.02682819067577521</v>
       </c>
       <c r="D92">
-        <v>0.2985524739366492</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2930950772946896</v>
+      </c>
+      <c r="E92">
+        <v>-0.1029439186906059</v>
+      </c>
+      <c r="F92">
+        <v>0.01765030495424244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1404667351716462</v>
+        <v>0.153664096841449</v>
       </c>
       <c r="C93">
-        <v>0.02241953938982347</v>
+        <v>0.03113019862722579</v>
       </c>
       <c r="D93">
-        <v>0.2662630147964932</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2638339755127001</v>
+      </c>
+      <c r="E93">
+        <v>-0.07692842153587244</v>
+      </c>
+      <c r="F93">
+        <v>-0.003394928604019913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1335966977396327</v>
+        <v>0.1258401144689227</v>
       </c>
       <c r="C94">
-        <v>0.028550266246572</v>
+        <v>0.02639552633666296</v>
       </c>
       <c r="D94">
-        <v>-0.03755224923821583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04074804347255446</v>
+      </c>
+      <c r="E94">
+        <v>0.0582033957006328</v>
+      </c>
+      <c r="F94">
+        <v>-0.03147393008652524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1279693849916592</v>
+        <v>0.1301259405318567</v>
       </c>
       <c r="C95">
-        <v>0.01087485480432734</v>
+        <v>0.005429737108415935</v>
       </c>
       <c r="D95">
-        <v>-0.08641393390769256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09704257918480572</v>
+      </c>
+      <c r="E95">
+        <v>0.05799253937047713</v>
+      </c>
+      <c r="F95">
+        <v>-0.002691531768464461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.129889661547992</v>
+        <v>0.1233192379597887</v>
       </c>
       <c r="C96">
-        <v>-0.9858347329131173</v>
+        <v>-0.9855963435374089</v>
       </c>
       <c r="D96">
-        <v>0.01925123047784717</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05134673368540404</v>
+      </c>
+      <c r="E96">
+        <v>0.05119009308882473</v>
+      </c>
+      <c r="F96">
+        <v>-0.04211275216528387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1951052308116674</v>
+        <v>0.1985524372860291</v>
       </c>
       <c r="C97">
-        <v>-0.002149323347784545</v>
+        <v>-0.002310399985729406</v>
       </c>
       <c r="D97">
-        <v>0.02252808208194456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02351064871653451</v>
+      </c>
+      <c r="E97">
+        <v>0.02060236178971512</v>
+      </c>
+      <c r="F97">
+        <v>0.1206372787851943</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2005190057609957</v>
+        <v>0.2063318565948228</v>
       </c>
       <c r="C98">
-        <v>0.0133655143912329</v>
+        <v>0.009571862201221262</v>
       </c>
       <c r="D98">
-        <v>-0.01211452679981646</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01418152440737523</v>
+      </c>
+      <c r="E98">
+        <v>-0.07345374118452586</v>
+      </c>
+      <c r="F98">
+        <v>0.09214231634920773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05597671226734484</v>
+        <v>0.05515983501425459</v>
       </c>
       <c r="C99">
-        <v>-0.001522757497887633</v>
+        <v>-0.003606335498663437</v>
       </c>
       <c r="D99">
-        <v>-0.03117591785915841</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03875524512405836</v>
+      </c>
+      <c r="E99">
+        <v>0.02263423577240797</v>
+      </c>
+      <c r="F99">
+        <v>-0.002701692222466329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1477586307600694</v>
+        <v>0.1329372052338378</v>
       </c>
       <c r="C100">
-        <v>-0.03688593277465884</v>
+        <v>-0.04941466429279567</v>
       </c>
       <c r="D100">
-        <v>-0.3929289638485318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3585472577753862</v>
+      </c>
+      <c r="E100">
+        <v>-0.8838737657269025</v>
+      </c>
+      <c r="F100">
+        <v>0.1475296760453322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02585115563458589</v>
+        <v>0.02851267412553603</v>
       </c>
       <c r="C101">
-        <v>0.009837119681059761</v>
+        <v>0.00906826586913463</v>
       </c>
       <c r="D101">
-        <v>-0.0295069331083388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0296008169603057</v>
+      </c>
+      <c r="E101">
+        <v>0.01365537068425023</v>
+      </c>
+      <c r="F101">
+        <v>0.01511854415054361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
